--- a/results/mp/logistic/corona/confidence/126/stop-words-topk-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/stop-words-topk-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,42 +40,42 @@
     <t>name</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
     <t>kill</t>
   </si>
   <si>
-    <t>forced</t>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>collapse</t>
   </si>
   <si>
     <t>died</t>
   </si>
   <si>
-    <t>crude</t>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>die</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
@@ -85,61 +85,73 @@
     <t>low</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>love</t>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>happy</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>fresh</t>
+    <t>save</t>
   </si>
   <si>
     <t>heroes</t>
@@ -148,58 +160,61 @@
     <t>join</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>true</t>
+  </si>
+  <si>
+    <t>ensure</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>save</t>
+    <t>gt</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>giving</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
     <t>alert</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>safety</t>
   </si>
 </sst>
 </file>
@@ -557,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -565,10 +580,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -626,13 +641,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7705479452054794</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C3">
-        <v>225</v>
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>225</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -644,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K3">
-        <v>0.9322033898305084</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -668,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -676,13 +691,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7368421052631579</v>
+        <v>0.7397260273972602</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>216</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>216</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -694,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K4">
         <v>0.9166666666666666</v>
@@ -726,13 +741,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7241379310344828</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -744,19 +759,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K5">
-        <v>0.9130434782608695</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -768,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -776,38 +791,38 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6538461538461539</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>14</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="L6">
         <v>17</v>
       </c>
-      <c r="D6">
+      <c r="M6">
         <v>17</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>9</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6">
-        <v>0.875</v>
-      </c>
-      <c r="L6">
-        <v>98</v>
-      </c>
-      <c r="M6">
-        <v>98</v>
-      </c>
       <c r="N6">
         <v>1</v>
       </c>
@@ -818,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -826,13 +841,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5588235294117647</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="C7">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -844,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K7">
-        <v>0.8485639686684073</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L7">
-        <v>325</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>325</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -868,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -876,13 +891,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5263157894736842</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -894,19 +909,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K8">
-        <v>0.8333333333333334</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -918,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -947,16 +962,16 @@
         <v>19</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9">
-        <v>0.8103448275862069</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L9">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="M9">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -968,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -976,13 +991,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4666666666666667</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -994,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K10">
-        <v>0.8076923076923077</v>
+        <v>0.8302872062663186</v>
       </c>
       <c r="L10">
-        <v>21</v>
+        <v>318</v>
       </c>
       <c r="M10">
-        <v>21</v>
+        <v>318</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1018,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1026,13 +1041,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4324324324324325</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1044,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K11">
-        <v>0.8055555555555556</v>
+        <v>0.8207547169811321</v>
       </c>
       <c r="L11">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="M11">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1068,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1076,13 +1091,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.417989417989418</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="C12">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1094,19 +1109,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K12">
-        <v>0.8018867924528302</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L12">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="M12">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1118,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1126,13 +1141,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3546511627906977</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="C13">
-        <v>183</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>183</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1144,19 +1159,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>333</v>
+        <v>25</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K13">
-        <v>0.7926829268292683</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L13">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="M13">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1168,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1176,38 +1191,38 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3333333333333333</v>
+        <v>0.3294573643410852</v>
       </c>
       <c r="C14">
+        <v>170</v>
+      </c>
+      <c r="D14">
+        <v>170</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>346</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14">
+        <v>0.7727272727272727</v>
+      </c>
+      <c r="L14">
         <v>17</v>
       </c>
-      <c r="D14">
+      <c r="M14">
         <v>17</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>34</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K14">
-        <v>0.775</v>
-      </c>
-      <c r="L14">
-        <v>124</v>
-      </c>
-      <c r="M14">
-        <v>124</v>
-      </c>
       <c r="N14">
         <v>1</v>
       </c>
@@ -1218,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1226,13 +1241,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.288135593220339</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="C15">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1244,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K15">
-        <v>0.7676056338028169</v>
+        <v>0.76875</v>
       </c>
       <c r="L15">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="M15">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1268,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1276,13 +1291,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2266666666666667</v>
+        <v>0.2</v>
       </c>
       <c r="C16">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1294,19 +1309,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K16">
-        <v>0.7578125</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="L16">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="M16">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1318,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1326,13 +1341,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.1946308724832215</v>
+        <v>0.1677852348993289</v>
       </c>
       <c r="C17">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D17">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1344,119 +1359,71 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="J17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17">
+        <v>0.7586206896551724</v>
+      </c>
+      <c r="L17">
+        <v>44</v>
+      </c>
+      <c r="M17">
+        <v>44</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="J18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18">
+        <v>0.7575757575757576</v>
+      </c>
+      <c r="L18">
+        <v>25</v>
+      </c>
+      <c r="M18">
+        <v>25</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="J19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K17">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="L17">
-        <v>45</v>
-      </c>
-      <c r="M17">
-        <v>45</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.06746031746031746</v>
-      </c>
-      <c r="C18">
-        <v>17</v>
-      </c>
-      <c r="D18">
-        <v>17</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>235</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K18">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="L18">
-        <v>34</v>
-      </c>
-      <c r="M18">
-        <v>34</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.004507405022537025</v>
-      </c>
-      <c r="C19">
-        <v>14</v>
-      </c>
-      <c r="D19">
-        <v>15</v>
-      </c>
-      <c r="E19">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="F19">
-        <v>0.9299999999999999</v>
-      </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>3092</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="K19">
-        <v>0.7021276595744681</v>
+        <v>0.75</v>
       </c>
       <c r="L19">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="M19">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1468,21 +1435,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="J20" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K20">
-        <v>0.6976744186046512</v>
+        <v>0.75</v>
       </c>
       <c r="L20">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M20">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1494,21 +1461,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K21">
-        <v>0.64</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L21">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M21">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1520,21 +1487,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K22">
-        <v>0.6363636363636364</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1546,21 +1513,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K23">
-        <v>0.6296296296296297</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="L23">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="M23">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1572,21 +1539,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K24">
-        <v>0.611764705882353</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L24">
-        <v>208</v>
+        <v>24</v>
       </c>
       <c r="M24">
-        <v>208</v>
+        <v>24</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1598,21 +1565,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>132</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K25">
-        <v>0.6</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L25">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="M25">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1624,21 +1591,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K26">
-        <v>0.5815899581589958</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L26">
-        <v>139</v>
+        <v>29</v>
       </c>
       <c r="M26">
-        <v>139</v>
+        <v>29</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1650,21 +1617,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>100</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K27">
-        <v>0.5692307692307692</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L27">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="M27">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1676,21 +1643,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K28">
-        <v>0.5525423728813559</v>
+        <v>0.66</v>
       </c>
       <c r="L28">
-        <v>163</v>
+        <v>33</v>
       </c>
       <c r="M28">
-        <v>163</v>
+        <v>33</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1702,21 +1669,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>132</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K29">
-        <v>0.5319148936170213</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L29">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="M29">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1728,21 +1695,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>44</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K30">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="L30">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="M30">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1754,21 +1721,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K31">
-        <v>0.5</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="L31">
-        <v>14</v>
+        <v>205</v>
       </c>
       <c r="M31">
-        <v>14</v>
+        <v>205</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1780,21 +1747,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>14</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K32">
-        <v>0.4719101123595505</v>
+        <v>0.6</v>
       </c>
       <c r="L32">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="M32">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1806,21 +1773,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K33">
-        <v>0.425</v>
+        <v>0.5732217573221757</v>
       </c>
       <c r="L33">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="M33">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1832,21 +1799,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>23</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K34">
-        <v>0.3939393939393939</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L34">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M34">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1858,21 +1825,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K35">
-        <v>0.3095238095238095</v>
+        <v>0.5425531914893617</v>
       </c>
       <c r="L35">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M35">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1884,21 +1851,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K36">
-        <v>0.2876712328767123</v>
+        <v>0.5389830508474577</v>
       </c>
       <c r="L36">
-        <v>21</v>
+        <v>159</v>
       </c>
       <c r="M36">
-        <v>21</v>
+        <v>159</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1910,21 +1877,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>52</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K37">
-        <v>0.2692307692307692</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="L37">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M37">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1936,33 +1903,215 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>57</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K38">
+        <v>0.4923076923076923</v>
+      </c>
+      <c r="L38">
+        <v>32</v>
+      </c>
+      <c r="M38">
+        <v>32</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K39">
+        <v>0.4848484848484849</v>
+      </c>
+      <c r="L39">
+        <v>16</v>
+      </c>
+      <c r="M39">
+        <v>16</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K38">
-        <v>0.2549019607843137</v>
-      </c>
-      <c r="L38">
-        <v>13</v>
-      </c>
-      <c r="M38">
-        <v>13</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>38</v>
+      <c r="K40">
+        <v>0.4606741573033708</v>
+      </c>
+      <c r="L40">
+        <v>41</v>
+      </c>
+      <c r="M40">
+        <v>41</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K41">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="L41">
+        <v>18</v>
+      </c>
+      <c r="M41">
+        <v>18</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K42">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="L42">
+        <v>15</v>
+      </c>
+      <c r="M42">
+        <v>15</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K43">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="L43">
+        <v>17</v>
+      </c>
+      <c r="M43">
+        <v>17</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K44">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="L44">
+        <v>24</v>
+      </c>
+      <c r="M44">
+        <v>24</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K45">
+        <v>0.273972602739726</v>
+      </c>
+      <c r="L45">
+        <v>20</v>
+      </c>
+      <c r="M45">
+        <v>20</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
